--- a/2024 Game Day Info/Week 3_ NY @ PORT (Sat)/Game Day Packet - Portland vs NY 4_20_24.xlsx
+++ b/2024 Game Day Info/Week 3_ NY @ PORT (Sat)/Game Day Packet - Portland vs NY 4_20_24.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
     <author/>
   </authors>
